--- a/dataSet/mac_os_server_RE.xlsx
+++ b/dataSet/mac_os_server_RE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76913E66-2D6D-4CEF-B430-B53001257772}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +66,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +149,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,202 +393,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>14.5413382386153</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>28.6106887143516</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>42.223371368513497</v>
       </c>
       <c r="E1">
-        <v>13</v>
+        <v>55.394208882476597</v>
       </c>
       <c r="F1">
-        <v>13</v>
+        <v>68.137542817920902</v>
       </c>
       <c r="G1">
-        <v>13</v>
+        <v>80.467249233180098</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>92.396753792709205</v>
       </c>
       <c r="I1">
-        <v>18</v>
+        <v>103.93904638612401</v>
       </c>
       <c r="J1">
-        <v>60</v>
+        <v>115.10669527272999</v>
       </c>
       <c r="K1">
-        <v>60</v>
+        <v>125.911860766948</v>
       </c>
       <c r="L1">
-        <v>80</v>
+        <v>136.36630847952401</v>
       </c>
       <c r="M1">
-        <v>84</v>
+        <v>146.48142212896099</v>
       </c>
       <c r="N1">
-        <v>96</v>
+        <v>156.26821593710599</v>
       </c>
       <c r="O1">
-        <v>96</v>
+        <v>165.73734662240301</v>
       </c>
       <c r="P1">
-        <v>97</v>
+        <v>174.89912500386001</v>
       </c>
       <c r="Q1">
-        <v>99</v>
+        <v>183.763527228371</v>
       </c>
       <c r="R1">
-        <v>114</v>
+        <v>192.34020563361801</v>
       </c>
       <c r="S1">
-        <v>114</v>
+        <v>200.63849925838699</v>
       </c>
       <c r="T1">
-        <v>118</v>
+        <v>208.667444011725</v>
       </c>
       <c r="U1">
-        <v>141</v>
+        <v>216.43578251203201</v>
       </c>
       <c r="V1">
-        <v>153</v>
+        <v>223.95197360679299</v>
       </c>
       <c r="W1">
-        <v>180</v>
+        <v>231.22420158330601</v>
       </c>
       <c r="X1">
-        <v>190</v>
+        <v>238.26038508045599</v>
       </c>
       <c r="Y1">
-        <v>213</v>
+        <v>245.068185711219</v>
       </c>
       <c r="Z1">
-        <v>220</v>
+        <v>251.65501640530201</v>
       </c>
       <c r="AA1">
-        <v>229</v>
+        <v>258.02804948098498</v>
       </c>
       <c r="AB1">
-        <v>243</v>
+        <v>264.19422445497202</v>
       </c>
       <c r="AC1">
-        <v>243</v>
+        <v>270.16025559874703</v>
       </c>
       <c r="AD1">
-        <v>280</v>
+        <v>275.93263924965697</v>
       </c>
       <c r="AE1">
-        <v>281</v>
+        <v>281.51766088469401</v>
       </c>
       <c r="AF1">
-        <v>295</v>
+        <v>286.921401964675</v>
       </c>
       <c r="AG1">
-        <v>308</v>
+        <v>292.14974655626798</v>
       </c>
       <c r="AH1">
-        <v>319</v>
+        <v>297.208387739079</v>
       </c>
       <c r="AI1">
-        <v>320</v>
+        <v>302.10283380477603</v>
       </c>
       <c r="AJ1">
-        <v>339</v>
+        <v>306.83841425499901</v>
       </c>
       <c r="AK1">
-        <v>348</v>
+        <v>311.42028560459198</v>
       </c>
       <c r="AL1">
-        <v>356</v>
+        <v>315.85343699646</v>
       </c>
       <c r="AM1">
-        <v>359</v>
+        <v>320.14269563419401</v>
       </c>
       <c r="AN1">
-        <v>359</v>
+        <v>324.29273203834799</v>
       </c>
       <c r="AO1">
-        <v>360</v>
+        <v>328.30806513211002</v>
       </c>
       <c r="AP1">
-        <v>363</v>
+        <v>332.19306716190499</v>
       </c>
       <c r="AQ1">
-        <v>363</v>
+        <v>335.951968458279</v>
       </c>
       <c r="AR1">
-        <v>363</v>
+        <v>339.58886204225001</v>
       </c>
       <c r="AS1">
-        <v>364</v>
+        <v>343.10770808215398</v>
       </c>
       <c r="AT1">
-        <v>365</v>
+        <v>346.512338205817</v>
       </c>
       <c r="AU1">
-        <v>365</v>
+        <v>349.80645967277098</v>
       </c>
       <c r="AV1">
-        <v>365</v>
+        <v>352.99365941104202</v>
       </c>
       <c r="AW1">
-        <v>365</v>
+        <v>356.07740792291003</v>
       </c>
       <c r="AX1">
-        <v>365</v>
+        <v>359.06106306390001</v>
       </c>
       <c r="AY1">
-        <v>366</v>
+        <v>361.94787369910199</v>
       </c>
       <c r="AZ1">
-        <v>367</v>
+        <v>364.74098324082797</v>
       </c>
       <c r="BA1">
-        <v>370</v>
+        <v>367.44343307142998</v>
       </c>
       <c r="BB1">
-        <v>370</v>
+        <v>370.05816585502401</v>
       </c>
       <c r="BC1">
-        <v>370</v>
+        <v>372.58802874172102</v>
       </c>
       <c r="BD1">
-        <v>370</v>
+        <v>375.035776467853</v>
       </c>
       <c r="BE1">
-        <v>370</v>
+        <v>377.40407435557398</v>
       </c>
       <c r="BF1">
-        <v>371</v>
+        <v>379.69550121509099</v>
       </c>
       <c r="BG1">
-        <v>371</v>
+        <v>381.912552152704</v>
       </c>
       <c r="BH1">
-        <v>371</v>
+        <v>384.05764128769101</v>
       </c>
       <c r="BI1">
-        <v>372</v>
+        <v>386.13310438101797</v>
       </c>
       <c r="BJ1">
-        <v>373</v>
+        <v>388.141201378716</v>
       </c>
       <c r="BK1">
-        <v>373</v>
+        <v>390.08411887271001</v>
+      </c>
+      <c r="BL1">
+        <v>391.96397248177101</v>
+      </c>
+      <c r="BM1">
+        <v>393.78280915518798</v>
+      </c>
+      <c r="BN1">
+        <v>395.54260940166603</v>
+      </c>
+      <c r="BO1">
+        <v>397.24528944587502</v>
+      </c>
+      <c r="BP1">
+        <v>398.89270331500597</v>
+      </c>
+      <c r="BQ1">
+        <v>400.48664485759599</v>
+      </c>
+      <c r="BR1">
+        <v>402.028849696831</v>
+      </c>
+      <c r="BS1">
+        <v>403.52099712043901</v>
+      </c>
+      <c r="BT1">
+        <v>404.964711909252</v>
+      </c>
+      <c r="BU1">
+        <v>406.36156610640302</v>
+      </c>
+      <c r="BV1">
+        <v>407.71308072911103</v>
+      </c>
+      <c r="BW1">
+        <v>409.02072742489099</v>
+      </c>
+      <c r="BX1">
+        <v>410.285930074021</v>
+      </c>
+      <c r="BY1">
+        <v>411.51006633997702</v>
+      </c>
+      <c r="BZ1">
+        <v>412.694469169564</v>
+      </c>
+      <c r="CA1">
+        <v>413.84042824433902</v>
+      </c>
+      <c r="CB1">
+        <v>414.949191384931</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -577,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
